--- a/spreadsheets/Lissandra.xlsx
+++ b/spreadsheets/Lissandra.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\1_special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6AC7CF3-C0F7-4BD1-B39B-2993205817A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD4F9E7-CBB9-4556-93A0-B3C480D169A5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="3330" yWindow="3330" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,17 +1017,17 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>127</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1042,7 @@
     <hyperlink ref="B7" r:id="rId3" xr:uid="{6508B232-2E93-40FC-857C-44972A9A392D}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{3391ED40-EB6E-4753-9CA3-D3DA0EFE913A}"/>
     <hyperlink ref="B5" r:id="rId5" xr:uid="{2CE00FF6-BB4E-408F-9B4F-056A55772CB7}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{16B2FDA2-5F25-475A-B257-8C65F9574809}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{16B2FDA2-5F25-475A-B257-8C65F9574809}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
